--- a/documentatie/logboeken/urenlijst_met_logboek_youssef.xlsx
+++ b/documentatie/logboeken/urenlijst_met_logboek_youssef.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Youssef" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Dag:</t>
   </si>
@@ -226,12 +226,15 @@
   </si>
   <si>
     <t>Donderdag: Notule vergadering 3 gemaakt. Ik was ziek vandaar dat ik niet veel heb gedaan.</t>
+  </si>
+  <si>
+    <t>Vrijdag: Documenten ingescand, laptop klaar gemaakt voor laravel, dingen geinstalleerd voor laravel.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,24 +709,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -733,6 +742,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -742,11 +760,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -766,10 +784,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="3" applyBorder="1" applyAlignment="1">
@@ -780,24 +801,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1083,21 +1086,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="53"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="38"/>
     </row>
     <row r="3" spans="1:17" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="17" t="s">
@@ -1156,11 +1159,11 @@
       <c r="J5" s="16">
         <v>4</v>
       </c>
-      <c r="O5" s="39" t="s">
+      <c r="O5" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
@@ -1219,11 +1222,11 @@
       <c r="J7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="42" t="s">
+      <c r="O7" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="44"/>
+      <c r="P7" s="48"/>
+      <c r="Q7" s="49"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
@@ -1246,11 +1249,11 @@
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="16"/>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
+      <c r="P8" s="48"/>
+      <c r="Q8" s="49"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
@@ -1264,11 +1267,11 @@
       <c r="I9" s="16"/>
       <c r="J9" s="16"/>
       <c r="K9" s="6"/>
-      <c r="O9" s="42" t="s">
+      <c r="O9" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="44"/>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="49"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
@@ -1281,11 +1284,11 @@
       <c r="H10" s="16"/>
       <c r="I10" s="16"/>
       <c r="J10" s="16"/>
-      <c r="O10" s="47" t="s">
+      <c r="O10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="49"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="55"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
@@ -1349,10 +1352,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" s="6"/>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="46"/>
+      <c r="D16" s="37"/>
       <c r="E16" s="19">
         <f>SUM((D5,D6,D7,D8,D9,D10,D11,D12,E5,E6,E7,E8,E9,E10,E11,E12,F5,F6,F7,F8,F9,F10,F11,F12,G5,G6,G7,G8,G9,G10,G11,G12,H5,H6,H7,H8,H9,H10,H11,H12,I5,I6,I7,I8,I9,I10,I11,I12,J5,J6,J7,J8,J9,J10,J11,J12,D13,D14,E13,E14,F13,F14,G13,G14,H13,H14,I13,I14,J13,J14))</f>
         <v>71.5</v>
@@ -1406,21 +1409,21 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D21" s="26"/>
@@ -1434,7 +1437,7 @@
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="26"/>
@@ -1448,7 +1451,7 @@
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="32" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="29"/>
@@ -1462,7 +1465,7 @@
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="31" t="s">
         <v>42</v>
       </c>
       <c r="D24" s="26"/>
@@ -1476,7 +1479,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="25" t="s">
+      <c r="C25" s="31" t="s">
         <v>43</v>
       </c>
       <c r="D25" s="26"/>
@@ -1490,16 +1493,16 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="33"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
@@ -1530,21 +1533,21 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="25" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="26"/>
@@ -1558,7 +1561,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="25" t="s">
         <v>51</v>
       </c>
       <c r="D31" s="26"/>
@@ -1572,7 +1575,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
-      <c r="C32" s="38" t="s">
+      <c r="C32" s="28" t="s">
         <v>52</v>
       </c>
       <c r="D32" s="29"/>
@@ -1586,7 +1589,7 @@
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="25" t="s">
         <v>53</v>
       </c>
       <c r="D33" s="26"/>
@@ -1600,7 +1603,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="25" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="26"/>
@@ -1614,16 +1617,16 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="10"/>
-      <c r="C35" s="54" t="s">
+      <c r="C35" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
@@ -1654,21 +1657,21 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="25" t="s">
         <v>57</v>
       </c>
       <c r="D39" s="26"/>
@@ -1682,7 +1685,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="25" t="s">
         <v>58</v>
       </c>
       <c r="D40" s="26"/>
@@ -1696,7 +1699,7 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="38" t="s">
+      <c r="C41" s="28" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="29"/>
@@ -1710,7 +1713,7 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
-      <c r="C42" s="37" t="s">
+      <c r="C42" s="25" t="s">
         <v>65</v>
       </c>
       <c r="D42" s="26"/>
@@ -1724,7 +1727,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
-      <c r="C43" s="37" t="s">
+      <c r="C43" s="25" t="s">
         <v>60</v>
       </c>
       <c r="D43" s="26"/>
@@ -1738,16 +1741,16 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="32"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="32"/>
-      <c r="I44" s="32"/>
-      <c r="J44" s="33"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
@@ -1778,21 +1781,21 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="12"/>
-      <c r="C47" s="55" t="s">
+      <c r="C47" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="36"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="25" t="s">
         <v>67</v>
       </c>
       <c r="D48" s="26"/>
@@ -1806,7 +1809,7 @@
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D49" s="26"/>
@@ -1820,7 +1823,7 @@
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="28" t="s">
         <v>68</v>
       </c>
       <c r="D50" s="29"/>
@@ -1835,7 +1838,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="25" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
@@ -1848,7 +1851,7 @@
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D52" s="26"/>
@@ -1862,16 +1865,16 @@
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="32"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="32"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="33"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="35"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
@@ -1902,21 +1905,21 @@
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="36"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="26"/>
@@ -1930,7 +1933,7 @@
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="25" t="s">
+      <c r="C58" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D58" s="26"/>
@@ -1942,7 +1945,7 @@
       <c r="J58" s="27"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D59" s="29"/>
@@ -1954,7 +1957,7 @@
       <c r="J59" s="30"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="25" t="s">
+      <c r="C60" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D60" s="26"/>
@@ -1966,7 +1969,7 @@
       <c r="J60" s="27"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="26"/>
@@ -1978,16 +1981,16 @@
       <c r="J61" s="27"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="32"/>
-      <c r="E62" s="32"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="32"/>
-      <c r="J62" s="33"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" s="35"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C63" s="22"/>
@@ -2012,19 +2015,19 @@
       <c r="J64" s="20"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="36"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C66" s="25" t="s">
+      <c r="C66" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D66" s="26"/>
@@ -2036,7 +2039,7 @@
       <c r="J66" s="27"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D67" s="26"/>
@@ -2048,7 +2051,7 @@
       <c r="J67" s="27"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D68" s="29"/>
@@ -2060,7 +2063,7 @@
       <c r="J68" s="30"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C69" s="25" t="s">
+      <c r="C69" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D69" s="26"/>
@@ -2072,7 +2075,7 @@
       <c r="J69" s="27"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C70" s="25" t="s">
+      <c r="C70" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D70" s="26"/>
@@ -2084,16 +2087,16 @@
       <c r="J70" s="27"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D71" s="32"/>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="32"/>
-      <c r="I71" s="32"/>
-      <c r="J71" s="33"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="35"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C72" s="22"/>
@@ -2118,19 +2121,19 @@
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C74" s="34" t="s">
+      <c r="C74" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="36"/>
+      <c r="D74" s="40"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="40"/>
+      <c r="G74" s="40"/>
+      <c r="H74" s="40"/>
+      <c r="I74" s="40"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C75" s="25" t="s">
+      <c r="C75" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D75" s="26"/>
@@ -2142,7 +2145,7 @@
       <c r="J75" s="27"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C76" s="25" t="s">
+      <c r="C76" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D76" s="26"/>
@@ -2154,7 +2157,7 @@
       <c r="J76" s="27"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D77" s="29"/>
@@ -2166,7 +2169,7 @@
       <c r="J77" s="30"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D78" s="26"/>
@@ -2178,7 +2181,7 @@
       <c r="J78" s="27"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C79" s="25" t="s">
+      <c r="C79" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D79" s="26"/>
@@ -2190,16 +2193,16 @@
       <c r="J79" s="27"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="33"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="35"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C81" s="22"/>
@@ -2224,19 +2227,19 @@
       <c r="J82" s="20"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C83" s="34" t="s">
+      <c r="C83" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
-      <c r="J83" s="36"/>
+      <c r="D83" s="40"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="40"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="40"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C84" s="25" t="s">
+      <c r="C84" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D84" s="26"/>
@@ -2248,7 +2251,7 @@
       <c r="J84" s="27"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C85" s="25" t="s">
+      <c r="C85" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D85" s="26"/>
@@ -2260,7 +2263,7 @@
       <c r="J85" s="27"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C86" s="28" t="s">
+      <c r="C86" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="29"/>
@@ -2272,7 +2275,7 @@
       <c r="J86" s="30"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C87" s="25" t="s">
+      <c r="C87" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D87" s="26"/>
@@ -2284,7 +2287,7 @@
       <c r="J87" s="27"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C88" s="25" t="s">
+      <c r="C88" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D88" s="26"/>
@@ -2296,16 +2299,16 @@
       <c r="J88" s="27"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C89" s="31" t="s">
+      <c r="C89" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="33"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="35"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C90" s="22"/>
@@ -2330,19 +2333,19 @@
       <c r="J91" s="20"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C92" s="34" t="s">
+      <c r="C92" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="36"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40"/>
+      <c r="G92" s="40"/>
+      <c r="H92" s="40"/>
+      <c r="I92" s="40"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C93" s="25" t="s">
+      <c r="C93" s="31" t="s">
         <v>24</v>
       </c>
       <c r="D93" s="26"/>
@@ -2354,7 +2357,7 @@
       <c r="J93" s="27"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C94" s="25" t="s">
+      <c r="C94" s="31" t="s">
         <v>25</v>
       </c>
       <c r="D94" s="26"/>
@@ -2366,7 +2369,7 @@
       <c r="J94" s="27"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C95" s="28" t="s">
+      <c r="C95" s="32" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="29"/>
@@ -2378,7 +2381,7 @@
       <c r="J95" s="30"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="31" t="s">
         <v>27</v>
       </c>
       <c r="D96" s="26"/>
@@ -2390,7 +2393,7 @@
       <c r="J96" s="27"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C97" s="25" t="s">
+      <c r="C97" s="31" t="s">
         <v>28</v>
       </c>
       <c r="D97" s="26"/>
@@ -2402,16 +2405,16 @@
       <c r="J97" s="27"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D98" s="32"/>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="32"/>
-      <c r="J98" s="33"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="34"/>
+      <c r="J98" s="35"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
@@ -2495,45 +2498,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="C38:J38"/>
-    <mergeCell ref="C39:J39"/>
-    <mergeCell ref="C40:J40"/>
-    <mergeCell ref="C41:J41"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="C50:J50"/>
-    <mergeCell ref="C51:J51"/>
-    <mergeCell ref="C52:J52"/>
-    <mergeCell ref="C53:J53"/>
-    <mergeCell ref="C42:J42"/>
-    <mergeCell ref="C43:J43"/>
-    <mergeCell ref="C44:J44"/>
-    <mergeCell ref="C47:J47"/>
-    <mergeCell ref="C48:J48"/>
-    <mergeCell ref="C80:J80"/>
-    <mergeCell ref="C98:J98"/>
-    <mergeCell ref="C88:J88"/>
-    <mergeCell ref="C89:J89"/>
-    <mergeCell ref="C92:J92"/>
-    <mergeCell ref="C93:J93"/>
-    <mergeCell ref="C94:J94"/>
-    <mergeCell ref="C96:J96"/>
-    <mergeCell ref="C97:J97"/>
-    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="C87:J87"/>
+    <mergeCell ref="O10:Q10"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="C71:J71"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="C83:J83"/>
+    <mergeCell ref="C84:J84"/>
+    <mergeCell ref="C85:J85"/>
+    <mergeCell ref="C86:J86"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="C78:J78"/>
+    <mergeCell ref="C79:J79"/>
     <mergeCell ref="O5:Q5"/>
     <mergeCell ref="O7:Q7"/>
     <mergeCell ref="C69:J69"/>
@@ -2550,22 +2530,45 @@
     <mergeCell ref="C59:J59"/>
     <mergeCell ref="C60:J60"/>
     <mergeCell ref="C49:J49"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="C87:J87"/>
-    <mergeCell ref="O10:Q10"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="C83:J83"/>
-    <mergeCell ref="C84:J84"/>
-    <mergeCell ref="C85:J85"/>
-    <mergeCell ref="C86:J86"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="C77:J77"/>
-    <mergeCell ref="C78:J78"/>
-    <mergeCell ref="C79:J79"/>
+    <mergeCell ref="C80:J80"/>
+    <mergeCell ref="C98:J98"/>
+    <mergeCell ref="C88:J88"/>
+    <mergeCell ref="C89:J89"/>
+    <mergeCell ref="C92:J92"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="C94:J94"/>
+    <mergeCell ref="C96:J96"/>
+    <mergeCell ref="C97:J97"/>
+    <mergeCell ref="C95:J95"/>
+    <mergeCell ref="C50:J50"/>
+    <mergeCell ref="C51:J51"/>
+    <mergeCell ref="C52:J52"/>
+    <mergeCell ref="C53:J53"/>
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="C44:J44"/>
+    <mergeCell ref="C47:J47"/>
+    <mergeCell ref="C48:J48"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
